--- a/biology/Zoologie/Allobates/Allobates.xlsx
+++ b/biology/Zoologie/Allobates/Allobates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allobates est un genre d'amphibiens de la famille des Aromobatidae, le seul de la sous-famille des Allobatinae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allobates est un genre d'amphibiens de la famille des Aromobatidae, le seul de la sous-famille des Allobatinae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 51 espèces de ce genre se rencontrent dans les forêts de basse altitude du Guyana, du Suriname, de la Guyane, de la Colombie, de l'Équateur, du Pérou, de Bolivie et du Brésil.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (22 mars 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 mars 2016) :
 Allobates alessandroi (Grant &amp; Rodriguez, 2001)
 Allobates algorei Barrio-Amorós &amp; Santos, 2009
 Allobates amissibilis Kok, Hölting &amp; Ernst, 2013
@@ -623,7 +639,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zimmermann &amp; Zimmermann, 1988 : Ethno-Taxonomie und zoogeographische Artengruppenbildung bei Pfeilgiftfröschen (Anura: Dendrobatidae). Salamandra, vol. 24, p. 125–160.
 Grant, Frost, Caldwell, Gagliardo, Haddad, Kok, Means, Noonan, Schargel &amp; Wheeler, 2006 : Phylogenetic systematics of dart-poison frogs and their relatives (Amphibia: Athesphatanura: Dendrobatidae). Bulletin of the American Museum of Natural History, no 299, p. 1-262 (texte intégral).</t>
